--- a/biology/Médecine/Fontanelle_postérieure/Fontanelle_postérieure.xlsx
+++ b/biology/Médecine/Fontanelle_postérieure/Fontanelle_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fontanelle_post%C3%A9rieure</t>
+          <t>Fontanelle_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fontanelle postérieure (ou fontanelle lambdatique ou fontanelle occipitale ou petite fontanelle) est la fontanelle située entre l'os occipital et les deux os pariétaux au niveau du lambda.
 Elle est triangulaire et est située à la jonction des sutures sagittale et lambdoïde.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fontanelle_post%C3%A9rieure</t>
+          <t>Fontanelle_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un retard de fermeture de la fontanelle postérieure est associé à une hypothyroïdie congénitale.
 </t>
